--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>nazev</t>
   </si>
@@ -43,18 +43,18 @@
     <t>Softwarové inženýrství</t>
   </si>
   <si>
+    <t>Introduction to MATLAB</t>
+  </si>
+  <si>
     <t>Odborná prezentace</t>
   </si>
   <si>
-    <t>Introduction to MATLAB</t>
+    <t>EIS</t>
   </si>
   <si>
     <t>KEIS</t>
   </si>
   <si>
-    <t>EIS</t>
-  </si>
-  <si>
     <t>SON</t>
   </si>
   <si>
@@ -67,55 +67,28 @@
     <t>0182</t>
   </si>
   <si>
+    <t>SWI</t>
+  </si>
+  <si>
     <t>KSWI</t>
   </si>
   <si>
-    <t>SWI</t>
+    <t>ITM</t>
+  </si>
+  <si>
+    <t>KOPRE</t>
   </si>
   <si>
     <t>OPRE</t>
-  </si>
-  <si>
-    <t>ITM</t>
-  </si>
-  <si>
-    <t>KOPRE</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>3457</t>
-  </si>
-  <si>
-    <t>3606</t>
-  </si>
-  <si>
-    <t>4190</t>
-  </si>
-  <si>
-    <t>4303</t>
-  </si>
-  <si>
-    <t>4746</t>
-  </si>
-  <si>
-    <t>4991</t>
-  </si>
-  <si>
-    <t>8093</t>
-  </si>
-  <si>
-    <t>8514</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -145,17 +118,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf/>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -167,7 +146,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
-    <tableColumn id="3" name="seminariciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="3" name="seminariciUcitIdno" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,8 +461,8 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
+      <c r="C2" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -493,8 +472,8 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+      <c r="C3" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -504,8 +483,8 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
+      <c r="C4" s="2">
+        <v>1609</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -515,8 +494,8 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
+      <c r="C5" s="2">
+        <v>1609</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -526,8 +505,8 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
+      <c r="C6" s="2">
+        <v>3457</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -537,8 +516,8 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
+      <c r="C7" s="2">
+        <v>3457</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -548,8 +527,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
+      <c r="C8" s="2">
+        <v>3606</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -559,8 +538,8 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
+      <c r="C9" s="2">
+        <v>3606</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -570,8 +549,8 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
+      <c r="C10" s="2">
+        <v>4190</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -581,8 +560,8 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
+      <c r="C11" s="2">
+        <v>4303</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -592,8 +571,8 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
+      <c r="C12" s="2">
+        <v>4746</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -603,8 +582,8 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
+      <c r="C13" s="2">
+        <v>4746</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -614,8 +593,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
+      <c r="C14" s="2">
+        <v>4991</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -625,8 +604,8 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
+      <c r="C15" s="2">
+        <v>4991</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -636,8 +615,8 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
+      <c r="C16" s="2">
+        <v>8093</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -647,8 +626,8 @@
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
+      <c r="C17" s="2">
+        <v>8093</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -658,8 +637,8 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
+      <c r="C18" s="2">
+        <v>8514</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -669,19 +648,19 @@
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
+      <c r="C19" s="2">
+        <v>8514</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
+      <c r="C20" s="2">
+        <v>8514</v>
       </c>
     </row>
   </sheetData>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -43,18 +43,18 @@
     <t>Softwarové inženýrství</t>
   </si>
   <si>
+    <t>Odborná prezentace</t>
+  </si>
+  <si>
     <t>Introduction to MATLAB</t>
   </si>
   <si>
-    <t>Odborná prezentace</t>
+    <t>KEIS</t>
   </si>
   <si>
     <t>EIS</t>
   </si>
   <si>
-    <t>KEIS</t>
-  </si>
-  <si>
     <t>SON</t>
   </si>
   <si>
@@ -67,16 +67,16 @@
     <t>0182</t>
   </si>
   <si>
+    <t>KSWI</t>
+  </si>
+  <si>
     <t>SWI</t>
   </si>
   <si>
-    <t>KSWI</t>
+    <t>KOPRE</t>
   </si>
   <si>
     <t>ITM</t>
-  </si>
-  <si>
-    <t>KOPRE</t>
   </si>
   <si>
     <t>OPRE</t>
@@ -654,7 +654,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -49,12 +49,12 @@
     <t>Introduction to MATLAB</t>
   </si>
   <si>
+    <t>EIS</t>
+  </si>
+  <si>
     <t>KEIS</t>
   </si>
   <si>
-    <t>EIS</t>
-  </si>
-  <si>
     <t>SON</t>
   </si>
   <si>
@@ -73,13 +73,13 @@
     <t>SWI</t>
   </si>
   <si>
+    <t>OPRE</t>
+  </si>
+  <si>
+    <t>ITM</t>
+  </si>
+  <si>
     <t>KOPRE</t>
-  </si>
-  <si>
-    <t>ITM</t>
-  </si>
-  <si>
-    <t>OPRE</t>
   </si>
 </sst>
 </file>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -34,12 +34,12 @@
     <t>Open Data</t>
   </si>
   <si>
+    <t>Základy autonomní robotiky</t>
+  </si>
+  <si>
     <t>Praktické aplikace hardwaru</t>
   </si>
   <si>
-    <t>Základy autonomní robotiky</t>
-  </si>
-  <si>
     <t>Softwarové inženýrství</t>
   </si>
   <si>
@@ -61,25 +61,25 @@
     <t>ODT</t>
   </si>
   <si>
+    <t>0182</t>
+  </si>
+  <si>
     <t>AHW</t>
   </si>
   <si>
-    <t>0182</t>
+    <t>SWI</t>
   </si>
   <si>
     <t>KSWI</t>
   </si>
   <si>
-    <t>SWI</t>
-  </si>
-  <si>
     <t>OPRE</t>
   </si>
   <si>
+    <t>KOPRE</t>
+  </si>
+  <si>
     <t>ITM</t>
-  </si>
-  <si>
-    <t>KOPRE</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>nazev</t>
   </si>
@@ -28,16 +28,22 @@
     <t>Podnikové informační systémy</t>
   </si>
   <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
     <t>Sociální sítě</t>
   </si>
   <si>
-    <t>Open Data</t>
+    <t>Praktické aplikace hardwaru</t>
   </si>
   <si>
     <t>Základy autonomní robotiky</t>
   </si>
   <si>
-    <t>Praktické aplikace hardwaru</t>
+    <t>Reflektivní seminář pedagogické praxe</t>
   </si>
   <si>
     <t>Softwarové inženýrství</t>
@@ -55,28 +61,34 @@
     <t>KEIS</t>
   </si>
   <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>K107</t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
-    <t>ODT</t>
+    <t>AHW</t>
   </si>
   <si>
     <t>0182</t>
   </si>
   <si>
-    <t>AHW</t>
+    <t>KSPP</t>
+  </si>
+  <si>
+    <t>KSWI</t>
   </si>
   <si>
     <t>SWI</t>
   </si>
   <si>
-    <t>KSWI</t>
+    <t>KOPRE</t>
   </si>
   <si>
     <t>OPRE</t>
-  </si>
-  <si>
-    <t>KOPRE</t>
   </si>
   <si>
     <t>ITM</t>
@@ -141,8 +153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C20" totalsRowShown="0">
-  <autoFilter ref="A1:C20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -437,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -470,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
@@ -478,24 +490,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>1609</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>1609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,10 +515,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>3457</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>3457</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>3606</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,32 +548,32 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>3606</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>4190</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>4303</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -569,10 +581,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>4746</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>4746</v>
@@ -588,13 +600,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
-        <v>4991</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -602,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>4991</v>
@@ -610,56 +622,78 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>8093</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>8093</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>8514</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>8514</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
         <v>8514</v>
       </c>
     </row>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -37,30 +37,30 @@
     <t>Sociální sítě</t>
   </si>
   <si>
+    <t>Základy autonomní robotiky</t>
+  </si>
+  <si>
     <t>Praktické aplikace hardwaru</t>
   </si>
   <si>
-    <t>Základy autonomní robotiky</t>
-  </si>
-  <si>
     <t>Reflektivní seminář pedagogické praxe</t>
   </si>
   <si>
     <t>Softwarové inženýrství</t>
   </si>
   <si>
+    <t>Introduction to MATLAB</t>
+  </si>
+  <si>
     <t>Odborná prezentace</t>
   </si>
   <si>
-    <t>Introduction to MATLAB</t>
+    <t>KEIS</t>
   </si>
   <si>
     <t>EIS</t>
   </si>
   <si>
-    <t>KEIS</t>
-  </si>
-  <si>
     <t>K521</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>SON</t>
   </si>
   <si>
+    <t>0182</t>
+  </si>
+  <si>
     <t>AHW</t>
   </si>
   <si>
-    <t>0182</t>
-  </si>
-  <si>
     <t>KSPP</t>
   </si>
   <si>
@@ -85,13 +85,13 @@
     <t>SWI</t>
   </si>
   <si>
+    <t>ITM</t>
+  </si>
+  <si>
     <t>KOPRE</t>
   </si>
   <si>
     <t>OPRE</t>
-  </si>
-  <si>
-    <t>ITM</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>nazev</t>
   </si>
@@ -31,67 +31,112 @@
     <t>Fyzikální praktikum C</t>
   </si>
   <si>
+    <t>Diplomový seminář</t>
+  </si>
+  <si>
+    <t>Regional geography of the Czech Republic</t>
+  </si>
+  <si>
+    <t>Reg. geography of Northwestern Bohemia</t>
+  </si>
+  <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
+    <t>Programování A</t>
+  </si>
+  <si>
+    <t>Identif. a hodn. ekosystémových služeb</t>
+  </si>
+  <si>
     <t>Sociální sítě</t>
   </si>
   <si>
+    <t>Matematika I</t>
+  </si>
+  <si>
+    <t>Praktické aplikace hardwaru</t>
+  </si>
+  <si>
     <t>Základy autonomní robotiky</t>
   </si>
   <si>
-    <t>Praktické aplikace hardwaru</t>
-  </si>
-  <si>
     <t>Reflektivní seminář pedagogické praxe</t>
   </si>
   <si>
     <t>Softwarové inženýrství</t>
   </si>
   <si>
+    <t>Odborná prezentace</t>
+  </si>
+  <si>
     <t>Introduction to MATLAB</t>
   </si>
   <si>
-    <t>Odborná prezentace</t>
+    <t>EIS</t>
   </si>
   <si>
     <t>KEIS</t>
   </si>
   <si>
-    <t>EIS</t>
-  </si>
-  <si>
     <t>K521</t>
   </si>
   <si>
+    <t>K505</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>K103</t>
+  </si>
+  <si>
     <t>K107</t>
   </si>
   <si>
+    <t>0153</t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
+    <t>K106</t>
+  </si>
+  <si>
+    <t>AHW</t>
+  </si>
+  <si>
     <t>0182</t>
   </si>
   <si>
-    <t>AHW</t>
+    <t>KRSPP</t>
+  </si>
+  <si>
+    <t>RSPP</t>
   </si>
   <si>
     <t>KSPP</t>
   </si>
   <si>
+    <t>SWI</t>
+  </si>
+  <si>
     <t>KSWI</t>
   </si>
   <si>
-    <t>SWI</t>
+    <t>KOPRE</t>
+  </si>
+  <si>
+    <t>OPRE</t>
   </si>
   <si>
     <t>ITM</t>
-  </si>
-  <si>
-    <t>KOPRE</t>
-  </si>
-  <si>
-    <t>OPRE</t>
   </si>
 </sst>
 </file>
@@ -153,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -449,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -482,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
@@ -493,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>302</v>
@@ -504,65 +549,65 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
-        <v>612</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>1609</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
-        <v>1609</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>3457</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>3457</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
-        <v>3606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,43 +615,43 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>3606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>4190</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>4746</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2">
-        <v>4746</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -614,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>4991</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -625,75 +670,185 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>4991</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>8021</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
-        <v>8093</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
-        <v>8093</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>8514</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
-        <v>8514</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2">
         <v>8514</v>
       </c>
     </row>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>nazev</t>
   </si>
@@ -34,12 +34,12 @@
     <t>Diplomový seminář</t>
   </si>
   <si>
+    <t>Reg. geography of Northwestern Bohemia</t>
+  </si>
+  <si>
     <t>Regional geography of the Czech Republic</t>
   </si>
   <si>
-    <t>Reg. geography of Northwestern Bohemia</t>
-  </si>
-  <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
@@ -55,10 +55,16 @@
     <t>Matematika I</t>
   </si>
   <si>
+    <t>Základy autonomní robotiky</t>
+  </si>
+  <si>
     <t>Praktické aplikace hardwaru</t>
   </si>
   <si>
-    <t>Základy autonomní robotiky</t>
+    <t>Scientific inquiry and reasoning</t>
+  </si>
+  <si>
+    <t>Letní geografická škola</t>
   </si>
   <si>
     <t>Reflektivní seminář pedagogické praxe</t>
@@ -85,12 +91,12 @@
     <t>K505</t>
   </si>
   <si>
+    <t>E100</t>
+  </si>
+  <si>
     <t>E101</t>
   </si>
   <si>
-    <t>E100</t>
-  </si>
-  <si>
     <t>P107</t>
   </si>
   <si>
@@ -109,34 +115,40 @@
     <t>K106</t>
   </si>
   <si>
+    <t>0182</t>
+  </si>
+  <si>
     <t>AHW</t>
   </si>
   <si>
-    <t>0182</t>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>RSPP</t>
+  </si>
+  <si>
+    <t>KSPP</t>
   </si>
   <si>
     <t>KRSPP</t>
   </si>
   <si>
-    <t>RSPP</t>
-  </si>
-  <si>
-    <t>KSPP</t>
+    <t>KSWI</t>
   </si>
   <si>
     <t>SWI</t>
   </si>
   <si>
-    <t>KSWI</t>
+    <t>OPRE</t>
+  </si>
+  <si>
+    <t>ITM</t>
   </si>
   <si>
     <t>KOPRE</t>
-  </si>
-  <si>
-    <t>OPRE</t>
-  </si>
-  <si>
-    <t>ITM</t>
   </si>
 </sst>
 </file>
@@ -198,8 +210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C32" totalsRowShown="0">
-  <autoFilter ref="A1:C32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C34" totalsRowShown="0">
+  <autoFilter ref="A1:C34"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -494,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -527,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
@@ -538,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>302</v>
@@ -549,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>306</v>
@@ -560,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>313</v>
@@ -571,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>313</v>
@@ -582,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>612</v>
@@ -593,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>612</v>
@@ -604,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>612</v>
@@ -615,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>1609</v>
@@ -626,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>1609</v>
@@ -637,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>2527</v>
@@ -648,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>3457</v>
@@ -659,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>3457</v>
@@ -670,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <v>3606</v>
@@ -681,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <v>3606</v>
@@ -692,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
         <v>4190</v>
@@ -703,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>4221</v>
@@ -714,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <v>4625</v>
@@ -725,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>4746</v>
@@ -736,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>4746</v>
@@ -744,13 +756,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
-        <v>4991</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
         <v>4991</v>
@@ -766,32 +778,32 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>8021</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
-        <v>8021</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
         <v>8021</v>
@@ -799,56 +811,78 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
-        <v>8093</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
-        <v>8093</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
-        <v>8514</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
-        <v>8514</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2">
         <v>8514</v>
       </c>
     </row>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -34,12 +34,12 @@
     <t>Open Data</t>
   </si>
   <si>
+    <t>Základy autonomní robotiky</t>
+  </si>
+  <si>
     <t>Praktické aplikace hardwaru</t>
   </si>
   <si>
-    <t>Základy autonomní robotiky</t>
-  </si>
-  <si>
     <t>Softwarové inženýrství</t>
   </si>
   <si>
@@ -61,25 +61,25 @@
     <t>ODT</t>
   </si>
   <si>
+    <t>0182</t>
+  </si>
+  <si>
     <t>AHW</t>
   </si>
   <si>
-    <t>0182</t>
-  </si>
-  <si>
     <t>KSWI</t>
   </si>
   <si>
     <t>SWI</t>
   </si>
   <si>
+    <t>KOPRE</t>
+  </si>
+  <si>
     <t>OPRE</t>
   </si>
   <si>
     <t>ITM</t>
-  </si>
-  <si>
-    <t>KOPRE</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -55,12 +55,12 @@
     <t>Matematika I</t>
   </si>
   <si>
+    <t>Praktické aplikace hardwaru</t>
+  </si>
+  <si>
     <t>Základy autonomní robotiky</t>
   </si>
   <si>
-    <t>Praktické aplikace hardwaru</t>
-  </si>
-  <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Introduction to MATLAB</t>
   </si>
   <si>
+    <t>KEIS</t>
+  </si>
+  <si>
     <t>EIS</t>
   </si>
   <si>
-    <t>KEIS</t>
-  </si>
-  <si>
     <t>K521</t>
   </si>
   <si>
@@ -97,15 +97,15 @@
     <t>E101</t>
   </si>
   <si>
+    <t>K107</t>
+  </si>
+  <si>
     <t>P107</t>
   </si>
   <si>
     <t>K103</t>
   </si>
   <si>
-    <t>K107</t>
-  </si>
-  <si>
     <t>0153</t>
   </si>
   <si>
@@ -115,24 +115,24 @@
     <t>K106</t>
   </si>
   <si>
+    <t>AHW</t>
+  </si>
+  <si>
     <t>0182</t>
   </si>
   <si>
-    <t>AHW</t>
-  </si>
-  <si>
     <t>PD101</t>
   </si>
   <si>
     <t>0158</t>
   </si>
   <si>
+    <t>KSPP</t>
+  </si>
+  <si>
     <t>RSPP</t>
   </si>
   <si>
-    <t>KSPP</t>
-  </si>
-  <si>
     <t>KRSPP</t>
   </si>
   <si>
@@ -142,13 +142,13 @@
     <t>SWI</t>
   </si>
   <si>
+    <t>KOPRE</t>
+  </si>
+  <si>
+    <t>ITM</t>
+  </si>
+  <si>
     <t>OPRE</t>
-  </si>
-  <si>
-    <t>ITM</t>
-  </si>
-  <si>
-    <t>KOPRE</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>

--- a/results/seminarici_bez_seminare.xlsx
+++ b/results/seminarici_bez_seminare.xlsx
@@ -40,12 +40,12 @@
     <t>Regional geography of the Czech Republic</t>
   </si>
   <si>
+    <t>Programování A</t>
+  </si>
+  <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
-    <t>Programování A</t>
-  </si>
-  <si>
     <t>Identif. a hodn. ekosystémových služeb</t>
   </si>
   <si>
@@ -73,18 +73,18 @@
     <t>Softwarové inženýrství</t>
   </si>
   <si>
+    <t>Introduction to MATLAB</t>
+  </si>
+  <si>
     <t>Odborná prezentace</t>
   </si>
   <si>
-    <t>Introduction to MATLAB</t>
+    <t>EIS</t>
   </si>
   <si>
     <t>KEIS</t>
   </si>
   <si>
-    <t>EIS</t>
-  </si>
-  <si>
     <t>K521</t>
   </si>
   <si>
@@ -97,15 +97,15 @@
     <t>E101</t>
   </si>
   <si>
+    <t>K103</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
     <t>K107</t>
   </si>
   <si>
-    <t>P107</t>
-  </si>
-  <si>
-    <t>K103</t>
-  </si>
-  <si>
     <t>0153</t>
   </si>
   <si>
@@ -127,28 +127,28 @@
     <t>0158</t>
   </si>
   <si>
+    <t>KRSPP</t>
+  </si>
+  <si>
     <t>KSPP</t>
   </si>
   <si>
     <t>RSPP</t>
   </si>
   <si>
-    <t>KRSPP</t>
-  </si>
-  <si>
     <t>KSWI</t>
   </si>
   <si>
     <t>SWI</t>
   </si>
   <si>
+    <t>ITM</t>
+  </si>
+  <si>
+    <t>OPRE</t>
+  </si>
+  <si>
     <t>KOPRE</t>
-  </si>
-  <si>
-    <t>ITM</t>
-  </si>
-  <si>
-    <t>OPRE</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>44</v>
